--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_07_beg.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_07_beg.xlsx
@@ -1044,7 +1044,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  He called himself “the last of the Winterwisps.”
+    <t xml:space="preserve">[name="Suzuran"]  He called himself 'the last of the Winterwisps.'
 </t>
   </si>
   <si>
@@ -1200,7 +1200,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  We don’t know who might be hiding in Zwölftontechnik Strasse. What if your “Reunion” is holed up in there?
+    <t xml:space="preserve">[name="Severin"]  We don’t know who might be hiding in Zwölftontechnik Strasse. What if your 'Reunion' is holed up in there?
 </t>
   </si>
   <si>
@@ -1208,7 +1208,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  They learned about “Reunion” from somewhere!
+    <t xml:space="preserve">[name="Tatjana"]  They learned about 'Reunion' from somewhere!
 </t>
   </si>
   <si>
@@ -1384,7 +1384,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Townsfolk"]  We need an artificer to get the “Gramophone” back! Use it on that thing!
+    <t xml:space="preserve">[name="Townsfolk"]  We need an artificer to get the 'Gramophone' back! Use it on that thing!
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_07_beg.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_07_beg.xlsx
@@ -1036,7 +1036,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  An old man told me he saw Biederman leading the riot. He’s the one who destroyed the power plant.
+    <t xml:space="preserve">[name="Suzuran"]  An old man told me he saw Biederman leading the riot. He's the one who destroyed the power plant.
 </t>
   </si>
   <si>
@@ -1048,11 +1048,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  He... He’s still alive? No. He might be a fraud.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]  A man like that wouldn’t lie. It’s just my intuition, but I don’t think he would ever lie.
+    <t xml:space="preserve">[name="Severin"]  He... He's still alive? No. He might be a fraud.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  A man like that wouldn't lie. It's just my intuition, but I don't think he would ever lie.
 </t>
   </si>
   <si>
@@ -1068,11 +1068,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  I’ll go see him. I... I don’t know. Should I go see him?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]  He told me the whole story. According to him, the Winterwisps weren’t behind this.
+    <t xml:space="preserve">[name="Severin"]  I'll go see him. I... I don't know. Should I go see him?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  He told me the whole story. According to him, the Winterwisps weren't behind this.
 </t>
   </si>
   <si>
@@ -1084,11 +1084,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  And it’s just that. An excuse.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  Even if it’s an excuse, they committed crimes. Next, they’ll demand we throw open the granary and leave us to starve.
+    <t xml:space="preserve">[name="Suzuran"]  And it's just that. An excuse.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  Even if it's an excuse, they committed crimes. Next, they'll demand we throw open the granary and leave us to starve.
 </t>
   </si>
   <si>
@@ -1096,7 +1096,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  No matter the excuse, we can’t trust them with our lives.
+    <t xml:space="preserve">[name="Severin"]  No matter the excuse, we can't trust them with our lives.
 </t>
   </si>
   <si>
@@ -1124,7 +1124,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  In a matter of months, we stopped at least seven acts of violence against him. There were more we weren’t even aware of.
+    <t xml:space="preserve">[name="Severin"]  In a matter of months, we stopped at least seven acts of violence against him. There were more we weren't even aware of.
 </t>
   </si>
   <si>
@@ -1144,7 +1144,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  Sure, at least on the surface. That’s why I never suspected him. Biederman was always melancholic. And even when he worked with Dr. Atro, we never saw him smile.
+    <t xml:space="preserve">[name="Severin"]  Sure, at least on the surface. That's why I never suspected him. Biederman was always melancholic. And even when he worked with Dr. Atro, we never saw him smile.
 </t>
   </si>
   <si>
@@ -1160,7 +1160,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  Vengeance... it’s always vengeance. 
+    <t xml:space="preserve">[name="Folinic"]  Vengeance... it's always vengeance. 
 </t>
   </si>
   <si>
@@ -1168,11 +1168,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  You didn’t positively identify the bodies. So you missed this possibility.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  But you can’t just assume—*cough* *cough*—*hack* *hack*
+    <t xml:space="preserve">[name="Folinic"]  You didn't positively identify the bodies. So you missed this possibility.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  But you can't just assume—*cough* *cough*—*hack* *hack*
 </t>
   </si>
   <si>
@@ -1192,7 +1192,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  The townsfolk are on the move! They... they’ve gone to siege Zwölftontechnik Strasse!
+    <t xml:space="preserve">[name="Tatjana"]  The townsfolk are on the move! They... they've gone to siege Zwölftontechnik Strasse!
 </t>
   </si>
   <si>
@@ -1200,11 +1200,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  We don’t know who might be hiding in Zwölftontechnik Strasse. What if your 'Reunion' is holed up in there?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tatjana"]  I- I tried. But they were too agitated. They wouldn’t listen to reason!
+    <t xml:space="preserve">[name="Severin"]  We don't know who might be hiding in Zwölftontechnik Strasse. What if your 'Reunion' is holed up in there?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tatjana"]  I- I tried. But they were too agitated. They wouldn't listen to reason!
 </t>
   </si>
   <si>
@@ -1224,11 +1224,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  They raised a militia and started combing a town... That means they’ve already decided to go to war.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  The townsfolk know we’re here. They want to burn us alive.
+    <t xml:space="preserve">[name="Mudrock"]  They raised a militia and started combing a town... That means they've already decided to go to war.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  The townsfolk know we're here. They want to burn us alive.
 </t>
   </si>
   <si>
@@ -1240,7 +1240,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  We can’t stay here. Will Rhodes Island lead the charge?
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  We can't stay here. Will Rhodes Island lead the charge?
 </t>
   </si>
   <si>
@@ -1248,11 +1248,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  I think... it’s just the angry people. They see us as villains, drenched in sin. They are the ones who want to drive us away.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mudrock"]  That’s all.
+    <t xml:space="preserve">[name="Mudrock"]  I think... it's just the angry people. They see us as villains, drenched in sin. They are the ones who want to drive us away.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mudrock"]  That's all.
 </t>
   </si>
   <si>
@@ -1260,15 +1260,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  Don’t forget our people died in this town.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  We respect your choice, but you're still young… and you don't yet understand the meaning behind this.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  Just so you know, we’re not all that easily roused. 
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  Don't forget our people died in this town.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  We respect your choice, but you're still young... and you don't yet understand the meaning behind this.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  Just so you know, we're not all that easily roused. 
 </t>
   </si>
   <si>
@@ -1276,7 +1276,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  If we run, they’ll brand us as arsonists, partisans, bandits. What’s the difference?
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  If we run, they'll brand us as arsonists, partisans, bandits. What's the difference?
 </t>
   </si>
   <si>
@@ -1292,7 +1292,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  Just give the order, and we’ll leave the moon to rest forever in the Winterwisp Mountains. Spring... will never come.
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  Just give the order, and we'll leave the moon to rest forever in the Winterwisp Mountains. Spring... will never come.
 </t>
   </si>
   <si>
@@ -1312,11 +1312,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Click"]  What’s happening? Why does it feel like they’re preparing for war?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="GreyThroat"]  That’s about right. It is a war.
+    <t xml:space="preserve">[name="Click"]  What's happening? Why does it feel like they're preparing for war?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="GreyThroat"]  That's about right. It is a war.
 </t>
   </si>
   <si>
@@ -1324,7 +1324,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="GreyThroat"]  At least, that’s what it is to them. They think they’re fighting a war.
+    <t xml:space="preserve">[name="GreyThroat"]  At least, that's what it is to them. They think they're fighting a war.
 </t>
   </si>
   <si>
@@ -1332,7 +1332,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="GreyThroat"]  I wouldn’t say okay. It seems like Severin didn’t want this to happen. Things are getting out of hand.
+    <t xml:space="preserve">[name="GreyThroat"]  I wouldn't say okay. It seems like Severin didn't want this to happen. Things are getting out of hand.
 </t>
   </si>
   <si>
@@ -1340,7 +1340,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="GreyThroat"]  Ayerscarpe is operating on his own. Remember this man. We just need to know where he is. He’s probably the one behind this insurgency.
+    <t xml:space="preserve">[name="GreyThroat"]  Ayerscarpe is operating on his own. Remember this man. We just need to know where he is. He's probably the one behind this insurgency.
 </t>
   </si>
   <si>
@@ -1352,7 +1352,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Click"]  They set themselves up in a small, abandoned hunting village. People go in and out every day, but the big one doesn’t move.
+    <t xml:space="preserve">[name="Click"]  They set themselves up in a small, abandoned hunting village. People go in and out every day, but the big one doesn't move.
 </t>
   </si>
   <si>
@@ -1360,15 +1360,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="GreyThroat"]  It couldn’t be...?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Townsfolk"]  Wh-what’s that?!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Townsfolk"]  A rock? A giant made out of stone? G-get some Arts on it! But not fire! Fire’s useless!
+    <t xml:space="preserve">[name="GreyThroat"]  It couldn't be...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Townsfolk"]  Wh-what's that?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Townsfolk"]  A rock? A giant made out of stone? G-get some Arts on it! But not fire! Fire's useless!
 </t>
   </si>
   <si>
@@ -1376,11 +1376,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Townsfolk"]  It’s no use! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Townsfolk"]  You’re making fools of yourselves. They aren’t alive. They’re just a bunch of rocks cobbled together by some Arts.
+    <t xml:space="preserve">[name="Townsfolk"]  It's no use! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Townsfolk"]  You're making fools of yourselves. They aren't alive. They're just a bunch of rocks cobbled together by some Arts.
 </t>
   </si>
   <si>
@@ -1396,31 +1396,31 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Townsfolk"]  It’s all you! Damned Winterwisps! Teaming up with Infected to steal the town!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rebellious Infected"]  What a bunch of morons! Heads full of music and garbage art! Don’t you see this is the end of Wolumonde?!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Townsfolk"]  I know. But it would’ve ended quicker if we just handed it over to you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rebellious Infected"]  Has Severin ever told you how much food you have stored? Did he say when the town will get back on course? No! Never! There’s no hope!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Townsfolk"]  That’s your fault! You destroyed my home!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rebellious Townsfolk"]  Wrong! It’s you high and mighty nobles who pushed us to desperation!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Townsfolk"]  And that’s why you’re killing people?!
+    <t xml:space="preserve">[name="Townsfolk"]  It's all you! Damned Winterwisps! Teaming up with Infected to steal the town!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rebellious Infected"]  What a bunch of morons! Heads full of music and garbage art! Don't you see this is the end of Wolumonde?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Townsfolk"]  I know. But it would've ended quicker if we just handed it over to you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rebellious Infected"]  Has Severin ever told you how much food you have stored? Did he say when the town will get back on course? No! Never! There's no hope!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Townsfolk"]  That's your fault! You destroyed my home!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rebellious Townsfolk"]  Wrong! It's you high and mighty nobles who pushed us to desperation!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Townsfolk"]  And that's why you're killing people?!
 </t>
   </si>
   <si>
@@ -1432,11 +1432,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  Now that we know who could be behind this, we shouldn’t be hurting each other like this.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]  Let’s go talk to them. We can convince them not to storm the town hall. They know Rhodes Island, so there should be a way.
+    <t xml:space="preserve">[name="Suzuran"]  Now that we know who could be behind this, we shouldn't be hurting each other like this.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  Let's go talk to them. We can convince them not to storm the town hall. They know Rhodes Island, so there should be a way.
 </t>
   </si>
   <si>
@@ -1452,7 +1452,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  If we don’t do something...
+    <t xml:space="preserve">[name="Suzuran"]  If we don't do something...
 </t>
   </si>
   <si>
@@ -1492,19 +1492,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  Let’s go.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  I can tell. You’re still reluctant.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mudrock"]  Reluctant...? When we came here, we only planned to... No. There’s no point. There hasn’t been, since we first set foot in Wolumonde.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mudrock"]  We lost four of our people in the fire. I’ve already stopped so many. But now, the other Infected must be given... perspective.
+    <t xml:space="preserve">[name="Mudrock"]  Let's go.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  I can tell. You're still reluctant.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mudrock"]  Reluctant...? When we came here, we only planned to... No. There's no point. There hasn't been, since we first set foot in Wolumonde.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mudrock"]  We lost four of our people in the fire. I've already stopped so many. But now, the other Infected must be given... perspective.
 </t>
   </si>
   <si>
@@ -1524,7 +1524,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  It’s time to fight.
+    <t xml:space="preserve">[name="Mudrock"]  It's time to fight.
 </t>
   </si>
   <si>
